--- a/maps/rpa_bot.xlsx
+++ b/maps/rpa_bot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenSQA\Documents\TIA\ASIGNADOR_RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenSQA\Documents\repos\gsqa_rpa_parallel_demo\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981AF05-ED4E-424C-8940-29CA545AE4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90303D70-B56C-4102-8818-BCDEF265B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B65F504F-40DB-46A1-888C-40F52FEABECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -44,34 +44,184 @@
     <t>animal</t>
   </si>
   <si>
-    <t>Armadillo</t>
-  </si>
-  <si>
     <t>Ballena</t>
   </si>
   <si>
     <t>Camaleón</t>
   </si>
   <si>
-    <t>Canguro</t>
-  </si>
-  <si>
-    <t>gallo</t>
-  </si>
-  <si>
-    <t>perro</t>
-  </si>
-  <si>
-    <t>gato</t>
-  </si>
-  <si>
-    <t>caballo</t>
-  </si>
-  <si>
-    <t>colibri</t>
-  </si>
-  <si>
-    <t>ardilla</t>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Elefante</t>
+  </si>
+  <si>
+    <t>Jirafa</t>
+  </si>
+  <si>
+    <t>Rinoceronte</t>
+  </si>
+  <si>
+    <t>Hipopótamo</t>
+  </si>
+  <si>
+    <t>Cebra</t>
+  </si>
+  <si>
+    <t>Oso</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Conejo</t>
+  </si>
+  <si>
+    <t>Liebre</t>
+  </si>
+  <si>
+    <t>Ratón</t>
+  </si>
+  <si>
+    <t>Murciélago</t>
+  </si>
+  <si>
+    <t>Nutria</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Ardilla</t>
+  </si>
+  <si>
+    <t>Mapache</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Chimpancé</t>
+  </si>
+  <si>
+    <t>Gorila</t>
+  </si>
+  <si>
+    <t>Orangután</t>
+  </si>
+  <si>
+    <t>Babuino</t>
+  </si>
+  <si>
+    <t>Tigre blanco</t>
+  </si>
+  <si>
+    <t>Leopardo</t>
+  </si>
+  <si>
+    <t>Pantera</t>
+  </si>
+  <si>
+    <t>Lince</t>
+  </si>
+  <si>
+    <t>Guepardo</t>
+  </si>
+  <si>
+    <t>Hiena</t>
+  </si>
+  <si>
+    <t>Lémur</t>
+  </si>
+  <si>
+    <t>Suricata</t>
+  </si>
+  <si>
+    <t>Delfín</t>
+  </si>
+  <si>
+    <t>Orca</t>
+  </si>
+  <si>
+    <t>Tiburón</t>
+  </si>
+  <si>
+    <t>Pez payaso</t>
+  </si>
+  <si>
+    <t>Pulpo</t>
+  </si>
+  <si>
+    <t>Calamar</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Estrella de mar</t>
+  </si>
+  <si>
+    <t>Caballito de mar</t>
+  </si>
+  <si>
+    <t>Tortuga</t>
+  </si>
+  <si>
+    <t>Cocodrilo</t>
+  </si>
+  <si>
+    <t>Lagarto</t>
+  </si>
+  <si>
+    <t>Serpiente</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Boa</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Sapo</t>
+  </si>
+  <si>
+    <t>Salamandra</t>
+  </si>
+  <si>
+    <t>Tritón</t>
+  </si>
+  <si>
+    <t>Gecko</t>
+  </si>
+  <si>
+    <t>Escorpión</t>
+  </si>
+  <si>
+    <t>Tarántula</t>
+  </si>
+  <si>
+    <t>Ciempiés</t>
   </si>
 </sst>
 </file>
@@ -440,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDFE240-0540-457D-9349-00EB4075EA64}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +683,407 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/maps/rpa_bot.xlsx
+++ b/maps/rpa_bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenSQA\Documents\repos\gsqa_rpa_parallel_demo\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90303D70-B56C-4102-8818-BCDEF265B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E58E71-2434-41D1-B081-4C591137E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B65F504F-40DB-46A1-888C-40F52FEABECC}"/>
   </bookViews>
@@ -36,192 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>Ballena</t>
-  </si>
-  <si>
-    <t>Camaleón</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
-    <t>Elefante</t>
-  </si>
-  <si>
-    <t>Jirafa</t>
-  </si>
-  <si>
-    <t>Rinoceronte</t>
-  </si>
-  <si>
-    <t>Hipopótamo</t>
-  </si>
-  <si>
-    <t>Cebra</t>
-  </si>
-  <si>
-    <t>Oso</t>
-  </si>
-  <si>
-    <t>Lobo</t>
-  </si>
-  <si>
-    <t>Zorro</t>
-  </si>
-  <si>
-    <t>Gato</t>
-  </si>
-  <si>
-    <t>Perro</t>
-  </si>
-  <si>
-    <t>Conejo</t>
-  </si>
-  <si>
-    <t>Liebre</t>
-  </si>
-  <si>
-    <t>Ratón</t>
-  </si>
-  <si>
-    <t>Murciélago</t>
-  </si>
-  <si>
-    <t>Nutria</t>
-  </si>
-  <si>
-    <t>Castor</t>
-  </si>
-  <si>
-    <t>Ardilla</t>
-  </si>
-  <si>
-    <t>Mapache</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Chimpancé</t>
-  </si>
-  <si>
-    <t>Gorila</t>
-  </si>
-  <si>
-    <t>Orangután</t>
-  </si>
-  <si>
-    <t>Babuino</t>
-  </si>
-  <si>
-    <t>Tigre blanco</t>
-  </si>
-  <si>
-    <t>Leopardo</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>Lince</t>
-  </si>
-  <si>
-    <t>Guepardo</t>
-  </si>
-  <si>
-    <t>Hiena</t>
-  </si>
-  <si>
-    <t>Lémur</t>
-  </si>
-  <si>
-    <t>Suricata</t>
-  </si>
-  <si>
-    <t>Delfín</t>
-  </si>
-  <si>
-    <t>Orca</t>
-  </si>
-  <si>
-    <t>Tiburón</t>
-  </si>
-  <si>
-    <t>Pez payaso</t>
-  </si>
-  <si>
-    <t>Pulpo</t>
-  </si>
-  <si>
-    <t>Calamar</t>
-  </si>
-  <si>
-    <t>Medusa</t>
-  </si>
-  <si>
-    <t>Estrella de mar</t>
-  </si>
-  <si>
-    <t>Caballito de mar</t>
-  </si>
-  <si>
-    <t>Tortuga</t>
-  </si>
-  <si>
-    <t>Cocodrilo</t>
-  </si>
-  <si>
-    <t>Lagarto</t>
-  </si>
-  <si>
-    <t>Serpiente</t>
-  </si>
-  <si>
-    <t>Cobra</t>
-  </si>
-  <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
-    <t>Boa</t>
-  </si>
-  <si>
-    <t>Rana</t>
-  </si>
-  <si>
-    <t>Sapo</t>
-  </si>
-  <si>
-    <t>Salamandra</t>
-  </si>
-  <si>
-    <t>Tritón</t>
-  </si>
-  <si>
-    <t>Gecko</t>
-  </si>
-  <si>
-    <t>Escorpión</t>
-  </si>
-  <si>
-    <t>Tarántula</t>
-  </si>
-  <si>
-    <t>Ciempiés</t>
+    <t>fecha_expedicion</t>
   </si>
 </sst>
 </file>
@@ -271,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,13 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDFE240-0540-457D-9349-00EB4075EA64}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -608,482 +432,802 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>16537176</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36714</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>16537177</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36715</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>16537178</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36716</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>16537179</v>
+      </c>
+      <c r="B5" s="2">
+        <v>36717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>16537180</v>
+      </c>
+      <c r="B6" s="2">
+        <v>36718</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>16537181</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36719</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>16537182</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36720</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>16537183</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36721</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>16537184</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36722</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>16537185</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36723</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+        <v>16537186</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36724</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>16537187</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36725</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+        <v>16537188</v>
+      </c>
+      <c r="B14" s="2">
+        <v>36726</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+        <v>16537189</v>
+      </c>
+      <c r="B15" s="2">
+        <v>36727</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+        <v>16537190</v>
+      </c>
+      <c r="B16" s="2">
+        <v>36728</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
+        <v>16537191</v>
+      </c>
+      <c r="B17" s="2">
+        <v>36729</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
+        <v>16537192</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36730</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
+        <v>16537193</v>
+      </c>
+      <c r="B19" s="2">
+        <v>36731</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
+        <v>16537194</v>
+      </c>
+      <c r="B20" s="2">
+        <v>36732</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
+        <v>16537195</v>
+      </c>
+      <c r="B21" s="2">
+        <v>36733</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
+        <v>16537196</v>
+      </c>
+      <c r="B22" s="2">
+        <v>36734</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
+        <v>16537197</v>
+      </c>
+      <c r="B23" s="2">
+        <v>36735</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>16537198</v>
+      </c>
+      <c r="B24" s="2">
+        <v>36736</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
+        <v>16537199</v>
+      </c>
+      <c r="B25" s="2">
+        <v>36737</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
+        <v>16537200</v>
+      </c>
+      <c r="B26" s="2">
+        <v>36738</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
+        <v>16537201</v>
+      </c>
+      <c r="B27" s="2">
+        <v>36739</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+        <v>16537202</v>
+      </c>
+      <c r="B28" s="2">
+        <v>36740</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
+        <v>16537203</v>
+      </c>
+      <c r="B29" s="2">
+        <v>36741</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
+        <v>16537204</v>
+      </c>
+      <c r="B30" s="2">
+        <v>36742</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
+        <v>16537205</v>
+      </c>
+      <c r="B31" s="2">
+        <v>36743</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
+        <v>16537206</v>
+      </c>
+      <c r="B32" s="2">
+        <v>36744</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
+        <v>16537207</v>
+      </c>
+      <c r="B33" s="2">
+        <v>36745</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
+        <v>16537208</v>
+      </c>
+      <c r="B34" s="2">
+        <v>36746</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
+        <v>16537209</v>
+      </c>
+      <c r="B35" s="2">
+        <v>36747</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
+        <v>16537210</v>
+      </c>
+      <c r="B36" s="2">
+        <v>36748</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
+        <v>16537211</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36749</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
+        <v>16537212</v>
+      </c>
+      <c r="B38" s="2">
+        <v>36750</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
+        <v>16537213</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36751</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
+        <v>16537214</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36752</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
+        <v>16537215</v>
+      </c>
+      <c r="B41" s="2">
+        <v>36753</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
+        <v>16537216</v>
+      </c>
+      <c r="B42" s="2">
+        <v>36754</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
+        <v>16537217</v>
+      </c>
+      <c r="B43" s="2">
+        <v>36755</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
+        <v>16537218</v>
+      </c>
+      <c r="B44" s="2">
+        <v>36756</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
+        <v>16537219</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36757</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
+        <v>16537220</v>
+      </c>
+      <c r="B46" s="2">
+        <v>36758</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
+        <v>16537221</v>
+      </c>
+      <c r="B47" s="2">
+        <v>36759</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
+        <v>16537222</v>
+      </c>
+      <c r="B48" s="2">
+        <v>36760</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
+        <v>16537223</v>
+      </c>
+      <c r="B49" s="2">
+        <v>36761</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
+        <v>16537224</v>
+      </c>
+      <c r="B50" s="2">
+        <v>36762</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
+        <v>16537225</v>
+      </c>
+      <c r="B51" s="2">
+        <v>36763</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
+        <v>16537226</v>
+      </c>
+      <c r="B52" s="2">
+        <v>36764</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
+        <v>16537227</v>
+      </c>
+      <c r="B53" s="2">
+        <v>36765</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
+        <v>16537228</v>
+      </c>
+      <c r="B54" s="2">
+        <v>36766</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
+        <v>16537229</v>
+      </c>
+      <c r="B55" s="2">
+        <v>36767</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
+        <v>16537230</v>
+      </c>
+      <c r="B56" s="2">
+        <v>36768</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
+        <v>16537231</v>
+      </c>
+      <c r="B57" s="2">
+        <v>36769</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
+        <v>16537232</v>
+      </c>
+      <c r="B58" s="2">
+        <v>36770</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
+        <v>16537233</v>
+      </c>
+      <c r="B59" s="2">
+        <v>36771</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
+        <v>16537234</v>
+      </c>
+      <c r="B60" s="2">
+        <v>36772</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
+        <v>16537235</v>
+      </c>
+      <c r="B61" s="2">
+        <v>36773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16537236</v>
+      </c>
+      <c r="B62" s="2">
+        <v>36774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16537237</v>
+      </c>
+      <c r="B63" s="2">
+        <v>36775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16537238</v>
+      </c>
+      <c r="B64" s="2">
+        <v>36776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16537239</v>
+      </c>
+      <c r="B65" s="2">
+        <v>36777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16537240</v>
+      </c>
+      <c r="B66" s="2">
+        <v>36778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16537241</v>
+      </c>
+      <c r="B67" s="2">
+        <v>36779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16537242</v>
+      </c>
+      <c r="B68" s="2">
+        <v>36780</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>16537243</v>
+      </c>
+      <c r="B69" s="2">
+        <v>36781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16537244</v>
+      </c>
+      <c r="B70" s="2">
+        <v>36782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>16537245</v>
+      </c>
+      <c r="B71" s="2">
+        <v>36783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16537246</v>
+      </c>
+      <c r="B72" s="2">
+        <v>36784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>16537247</v>
+      </c>
+      <c r="B73" s="2">
+        <v>36785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16537248</v>
+      </c>
+      <c r="B74" s="2">
+        <v>36786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>16537249</v>
+      </c>
+      <c r="B75" s="2">
+        <v>36787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>16537250</v>
+      </c>
+      <c r="B76" s="2">
+        <v>36788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>16537251</v>
+      </c>
+      <c r="B77" s="2">
+        <v>36789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>16537252</v>
+      </c>
+      <c r="B78" s="2">
+        <v>36790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16537253</v>
+      </c>
+      <c r="B79" s="2">
+        <v>36791</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>16537254</v>
+      </c>
+      <c r="B80" s="2">
+        <v>36792</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>16537255</v>
+      </c>
+      <c r="B81" s="2">
+        <v>36793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>16537256</v>
+      </c>
+      <c r="B82" s="2">
+        <v>36794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>16537257</v>
+      </c>
+      <c r="B83" s="2">
+        <v>36795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16537258</v>
+      </c>
+      <c r="B84" s="2">
+        <v>36796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>16537259</v>
+      </c>
+      <c r="B85" s="2">
+        <v>36797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16537260</v>
+      </c>
+      <c r="B86" s="2">
+        <v>36798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>16537261</v>
+      </c>
+      <c r="B87" s="2">
+        <v>36799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16537262</v>
+      </c>
+      <c r="B88" s="2">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16537263</v>
+      </c>
+      <c r="B89" s="2">
+        <v>36801</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>16537264</v>
+      </c>
+      <c r="B90" s="2">
+        <v>36802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>16537265</v>
+      </c>
+      <c r="B91" s="2">
+        <v>36803</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>16537266</v>
+      </c>
+      <c r="B92" s="2">
+        <v>36804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>16537267</v>
+      </c>
+      <c r="B93" s="2">
+        <v>36805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16537268</v>
+      </c>
+      <c r="B94" s="2">
+        <v>36806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>16537269</v>
+      </c>
+      <c r="B95" s="2">
+        <v>36807</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>16537270</v>
+      </c>
+      <c r="B96" s="2">
+        <v>36808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>16537271</v>
+      </c>
+      <c r="B97" s="2">
+        <v>36809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16537272</v>
+      </c>
+      <c r="B98" s="2">
+        <v>36810</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16537273</v>
+      </c>
+      <c r="B99" s="2">
+        <v>36811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16537274</v>
+      </c>
+      <c r="B100" s="2">
+        <v>36812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>16537275</v>
+      </c>
+      <c r="B101" s="2">
+        <v>36813</v>
       </c>
     </row>
   </sheetData>
